--- a/lib/info muestravirtual final 9-6-2021.xlsx
+++ b/lib/info muestravirtual final 9-6-2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\ConexionTEC\_EVENTOS ANTERIORES\FJ2021\proyectos registrados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernandasanchez/Desktop/conexion_tec/lib/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08940C58-62FF-4B47-A63A-A70F96952B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C979F978-7650-5B47-93B7-20A8C20D1C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QUERY PICTEST" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="G:\My Drive\ConexionTEC\_EVENTOS ANTERIORES\FJ2021\DB\QUERY PICTEST.iqy" keepAlive="1" name="QUERY PICTEST" type="5" refreshedVersion="7" minRefreshableVersion="3" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="G:\My Drive\ConexionTEC\_EVENTOS ANTERIORES\FJ2021\DB\QUERY PICTEST.iqy" keepAlive="1" name="QUERY PICTEST" type="5" refreshedVersion="7" minRefreshableVersion="3" saveData="1">
     <dbPr connection="Provider=Microsoft.Office.List.OLEDB.2.0;Data Source=&quot;&quot;;ApplicationName=Excel;Version=12.0.0.0" command="&lt;LIST&gt;&lt;VIEWGUID&gt;D1A5B587-1AD6-46F4-845A-AF12D452C5EE&lt;/VIEWGUID&gt;&lt;LISTNAME&gt;{0FDF927F-90B9-4FD2-A7A2-FB8A54284D4A}&lt;/LISTNAME&gt;&lt;LISTWEB&gt;https://tecmx.sharepoint.com/sites/10MCTec/_vti_bin&lt;/LISTWEB&gt;&lt;LISTSUBWEB&gt;&lt;/LISTSUBWEB&gt;&lt;ROOTFOLDER&gt;&lt;/ROOTFOLDER&gt;&lt;/LIST&gt;" commandType="5"/>
   </connection>
 </connections>
@@ -480,9 +480,6 @@
   </si>
   <si>
     <t>Muestra logo.png</t>
-  </si>
-  <si>
-    <t>empaque c:logo.png</t>
   </si>
   <si>
     <t>https://drive.google.com/open?id=15zxPIjQIKmUlPg1Z60Zp92pU8frgaw4S</t>
@@ -3082,11 +3079,14 @@
 A00820409@itesm.mx
 rvztz@tec.mx</t>
   </si>
+  <si>
+    <t>empaque c_logo.png</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3704,7 +3704,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="QUERY PICTEST" backgroundRefresh="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="QUERY PICTEST" backgroundRefresh="0" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="22">
     <queryTableFields count="21">
       <queryTableField id="1" name="Título" tableColumnId="1"/>
@@ -3734,30 +3734,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_QUERY_PICTEST" displayName="Table_QUERY_PICTEST" ref="A1:U123" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:U123"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_QUERY_PICTEST" displayName="Table_QUERY_PICTEST" ref="A1:U123" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:U123" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="21">
-    <tableColumn id="1" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="18"/>
-    <tableColumn id="2" uniqueName="PARENTID" name="PARENTID" queryTableFieldId="11" dataDxfId="17"/>
-    <tableColumn id="3" uniqueName="PIC1NUM" name="PIC1NUM" queryTableFieldId="5" dataDxfId="16"/>
-    <tableColumn id="4" uniqueName="PIC2NUM" name="PIC2NUM" queryTableFieldId="6" dataDxfId="15"/>
-    <tableColumn id="5" uniqueName="PIC3NUM" name="PIC3NUM" queryTableFieldId="7" dataDxfId="14"/>
-    <tableColumn id="6" uniqueName="PI4URL" name="PI4URL" queryTableFieldId="18" dataDxfId="13"/>
-    <tableColumn id="7" uniqueName="PIC5URL" name="PIC5URL" queryTableFieldId="19" dataDxfId="12"/>
-    <tableColumn id="8" uniqueName="PIC1NOM" name="PIC1NOM" queryTableFieldId="8" dataDxfId="11"/>
-    <tableColumn id="9" uniqueName="PIC2NOM" name="PIC2NOM" queryTableFieldId="9" dataDxfId="10"/>
-    <tableColumn id="10" uniqueName="PIC3NOM" name="PIC3NOM" queryTableFieldId="10" dataDxfId="9"/>
-    <tableColumn id="11" uniqueName="PIC4NOM" name="PIC4NOM" queryTableFieldId="15" dataDxfId="8"/>
-    <tableColumn id="12" uniqueName="PIC5NOM" name="PIC5NOM" queryTableFieldId="16" dataDxfId="7"/>
-    <tableColumn id="13" uniqueName="VIDEOURL" name="VIDEOURL" queryTableFieldId="12" dataDxfId="6"/>
-    <tableColumn id="14" uniqueName="VCLINK" name="VCLINK" queryTableFieldId="13" dataDxfId="5"/>
-    <tableColumn id="15" uniqueName="POSTERURL" name="POSTERURL" queryTableFieldId="14" dataDxfId="4"/>
-    <tableColumn id="16" uniqueName="CONTACTO" name="CONTACTO" queryTableFieldId="17" dataDxfId="3"/>
-    <tableColumn id="17" uniqueName="PICTXT" name="PICTXT" queryTableFieldId="2" dataDxfId="2"/>
-    <tableColumn id="18" uniqueName="PICIMG" name="PICIMG" queryTableFieldId="3"/>
-    <tableColumn id="19" uniqueName="PICURL" name="PICURL" queryTableFieldId="4"/>
-    <tableColumn id="20" uniqueName="FSObjType" name="Tipo de elemento" queryTableFieldId="21" dataDxfId="1"/>
-    <tableColumn id="21" uniqueName="FileDirRef" name="Ruta de acceso" queryTableFieldId="20" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="PARENTID" name="PARENTID" queryTableFieldId="11" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="PIC1NUM" name="PIC1NUM" queryTableFieldId="5" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="PIC2NUM" name="PIC2NUM" queryTableFieldId="6" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="PIC3NUM" name="PIC3NUM" queryTableFieldId="7" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="PI4URL" name="PI4URL" queryTableFieldId="18" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="PIC5URL" name="PIC5URL" queryTableFieldId="19" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="PIC1NOM" name="PIC1NOM" queryTableFieldId="8" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="PIC2NOM" name="PIC2NOM" queryTableFieldId="9" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="PIC3NOM" name="PIC3NOM" queryTableFieldId="10" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="PIC4NOM" name="PIC4NOM" queryTableFieldId="15" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="PIC5NOM" name="PIC5NOM" queryTableFieldId="16" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="VIDEOURL" name="VIDEOURL" queryTableFieldId="12" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="VCLINK" name="VCLINK" queryTableFieldId="13" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" uniqueName="POSTERURL" name="POSTERURL" queryTableFieldId="14" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" uniqueName="CONTACTO" name="CONTACTO" queryTableFieldId="17" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" uniqueName="PICTXT" name="PICTXT" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="PICIMG" name="PICIMG" queryTableFieldId="3"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" uniqueName="PICURL" name="PICURL" queryTableFieldId="4"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" uniqueName="FSObjType" name="Tipo de elemento" queryTableFieldId="21" dataDxfId="1"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" uniqueName="FileDirRef" name="Ruta de acceso" queryTableFieldId="20" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4059,34 +4059,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="42.46484375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="50.06640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="56.9296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="64.796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="66.19921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="80.53125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="50" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="57" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="64.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="66.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="80.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4151,7 +4153,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -4196,7 +4198,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" ht="96" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -4241,7 +4243,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -4284,7 +4286,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" ht="96" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
@@ -4327,7 +4329,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>57</v>
       </c>
@@ -4370,7 +4372,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>65</v>
       </c>
@@ -4415,7 +4417,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>74</v>
       </c>
@@ -4460,7 +4462,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
@@ -4505,7 +4507,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>92</v>
       </c>
@@ -4550,7 +4552,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>101</v>
       </c>
@@ -4583,7 +4585,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" ht="80" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>104</v>
       </c>
@@ -4628,7 +4630,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>112</v>
       </c>
@@ -4673,7 +4675,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>121</v>
       </c>
@@ -4718,7 +4720,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:21" ht="80" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>130</v>
       </c>
@@ -4763,7 +4765,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>138</v>
       </c>
@@ -4782,23 +4784,23 @@
         <v>140</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q16" s="3"/>
       <c r="T16" s="1" t="s">
@@ -4808,9 +4810,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B17" s="2">
         <v>1443</v>
@@ -4821,29 +4823,29 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q17" s="3"/>
       <c r="T17" s="1" t="s">
@@ -4853,9 +4855,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B18" s="2">
         <v>1535</v>
@@ -4866,29 +4868,29 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q18" s="3"/>
       <c r="T18" s="1" t="s">
@@ -4898,9 +4900,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B19" s="2">
         <v>1469</v>
@@ -4911,29 +4913,29 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q19" s="3"/>
       <c r="T19" s="1" t="s">
@@ -4943,9 +4945,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B20" s="2">
         <v>1494</v>
@@ -4957,26 +4959,26 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q20" s="3"/>
       <c r="T20" s="1" t="s">
@@ -4986,9 +4988,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B21" s="2">
         <v>1550</v>
@@ -4999,29 +5001,29 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>93</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q21" s="3"/>
       <c r="T21" s="1" t="s">
@@ -5031,9 +5033,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B22" s="2">
         <v>1447</v>
@@ -5044,29 +5046,29 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q22" s="3"/>
       <c r="T22" s="1" t="s">
@@ -5076,9 +5078,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B23" s="2">
         <v>1520</v>
@@ -5089,29 +5091,29 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="K23" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q23" s="3"/>
       <c r="T23" s="1" t="s">
@@ -5121,9 +5123,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B24" s="2">
         <v>1454</v>
@@ -5134,29 +5136,29 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="K24" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q24" s="3"/>
       <c r="T24" s="1" t="s">
@@ -5166,9 +5168,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B25" s="2">
         <v>1461</v>
@@ -5179,27 +5181,27 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q25" s="3"/>
       <c r="T25" s="1" t="s">
@@ -5209,9 +5211,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B26" s="2">
         <v>1530</v>
@@ -5222,29 +5224,29 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="J26" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q26" s="3"/>
       <c r="T26" s="1" t="s">
@@ -5254,9 +5256,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B27" s="2">
         <v>1538</v>
@@ -5267,29 +5269,29 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="J27" s="1" t="s">
+      <c r="K27" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="M27" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q27" s="3"/>
       <c r="T27" s="1" t="s">
@@ -5299,9 +5301,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="57" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B28" s="2">
         <v>1440</v>
@@ -5312,7 +5314,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>124</v>
@@ -5321,20 +5323,20 @@
         <v>94</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q28" s="3"/>
       <c r="T28" s="1" t="s">
@@ -5344,9 +5346,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B29" s="2">
         <v>1502</v>
@@ -5357,26 +5359,26 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>124</v>
       </c>
       <c r="J29" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
@@ -5387,9 +5389,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B30" s="2">
         <v>1478</v>
@@ -5400,29 +5402,29 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="M30" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="P30" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="P30" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="Q30" s="3"/>
       <c r="T30" s="1" t="s">
@@ -5432,9 +5434,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B31" s="2">
         <v>1490</v>
@@ -5445,29 +5447,29 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="K31" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q31" s="3"/>
       <c r="T31" s="1" t="s">
@@ -5477,9 +5479,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B32" s="2">
         <v>1482</v>
@@ -5490,29 +5492,29 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I32" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="K32" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="M32" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q32" s="3"/>
       <c r="T32" s="1" t="s">
@@ -5522,9 +5524,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B33" s="2">
         <v>1504</v>
@@ -5540,14 +5542,14 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="P33" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>277</v>
       </c>
       <c r="Q33" s="3"/>
       <c r="T33" s="1" t="s">
@@ -5557,9 +5559,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B34" s="2">
         <v>1572</v>
@@ -5570,29 +5572,29 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>94</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q34" s="3"/>
       <c r="T34" s="1" t="s">
@@ -5602,9 +5604,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B35" s="2">
         <v>1511</v>
@@ -5615,29 +5617,29 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="J35" s="1" t="s">
+      <c r="K35" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="M35" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q35" s="3"/>
       <c r="T35" s="1" t="s">
@@ -5647,9 +5649,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="57" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B36" s="2">
         <v>1475</v>
@@ -5660,29 +5662,29 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="K36" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="M36" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q36" s="3"/>
       <c r="T36" s="1" t="s">
@@ -5692,9 +5694,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B37" s="2">
         <v>1457</v>
@@ -5705,29 +5707,29 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I37" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="K37" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="M37" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q37" s="3"/>
       <c r="T37" s="1" t="s">
@@ -5737,9 +5739,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B38" s="2">
         <v>1433</v>
@@ -5750,29 +5752,29 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="J38" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="K38" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="M38" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q38" s="3"/>
       <c r="T38" s="1" t="s">
@@ -5782,9 +5784,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B39" s="2">
         <v>1427</v>
@@ -5795,29 +5797,29 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="J39" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="K39" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="M39" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q39" s="3"/>
       <c r="T39" s="1" t="s">
@@ -5827,9 +5829,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B40" s="2">
         <v>1485</v>
@@ -5840,27 +5842,27 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="J40" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q40" s="3"/>
       <c r="T40" s="1" t="s">
@@ -5870,9 +5872,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B41" s="2">
         <v>1486</v>
@@ -5883,29 +5885,29 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="J41" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="K41" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="M41" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Q41" s="3"/>
       <c r="T41" s="1" t="s">
@@ -5915,9 +5917,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="57" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B42" s="2">
         <v>1560</v>
@@ -5928,29 +5930,29 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I42" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J42" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="K42" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="M42" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Q42" s="3"/>
       <c r="T42" s="1" t="s">
@@ -5960,9 +5962,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B43" s="2">
         <v>1526</v>
@@ -5973,29 +5975,29 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="K43" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="M43" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q43" s="3"/>
       <c r="T43" s="1" t="s">
@@ -6005,9 +6007,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B44" s="2">
         <v>1536</v>
@@ -6018,10 +6020,10 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>98</v>
@@ -6030,17 +6032,17 @@
         <v>98</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Q44" s="3"/>
       <c r="T44" s="1" t="s">
@@ -6050,9 +6052,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:21" ht="80" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B45" s="2">
         <v>1471</v>
@@ -6064,26 +6066,26 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="J45" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="K45" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="M45" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Q45" s="3"/>
       <c r="T45" s="1" t="s">
@@ -6093,9 +6095,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B46" s="2">
         <v>1453</v>
@@ -6107,26 +6109,26 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="K46" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="M46" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Q46" s="3"/>
       <c r="T46" s="1" t="s">
@@ -6136,9 +6138,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B47" s="2">
         <v>1542</v>
@@ -6152,26 +6154,26 @@
         <v>139</v>
       </c>
       <c r="I47" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="J47" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>80</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="P47" s="3" t="s">
         <v>386</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>387</v>
       </c>
       <c r="Q47" s="3"/>
       <c r="T47" s="1" t="s">
@@ -6181,9 +6183,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B48" s="2">
         <v>1534</v>
@@ -6194,10 +6196,10 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>95</v>
@@ -6206,17 +6208,17 @@
         <v>99</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q48" s="3"/>
       <c r="T48" s="1" t="s">
@@ -6226,9 +6228,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B49" s="2">
         <v>1467</v>
@@ -6240,26 +6242,26 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="J49" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="K49" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="M49" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q49" s="3"/>
       <c r="T49" s="1" t="s">
@@ -6269,9 +6271,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B50" s="2">
         <v>1448</v>
@@ -6282,29 +6284,29 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I50" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J50" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="K50" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="M50" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>406</v>
       </c>
       <c r="N50" s="1"/>
       <c r="O50" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="T50" s="1" t="s">
@@ -6314,9 +6316,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B51" s="2">
         <v>1463</v>
@@ -6327,29 +6329,29 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="J51" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="K51" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="M51" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>415</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Q51" s="3"/>
       <c r="T51" s="1" t="s">
@@ -6359,9 +6361,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B52" s="2">
         <v>1460</v>
@@ -6372,29 +6374,29 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="J52" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="I52" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="J52" s="1" t="s">
+      <c r="K52" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="M52" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Q52" s="3"/>
       <c r="T52" s="1" t="s">
@@ -6404,9 +6406,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B53" s="2">
         <v>1435</v>
@@ -6422,11 +6424,11 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
@@ -6437,9 +6439,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B54" s="2">
         <v>1446</v>
@@ -6450,29 +6452,29 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="J54" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="K54" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="M54" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>435</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q54" s="3"/>
       <c r="T54" s="1" t="s">
@@ -6482,9 +6484,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B55" s="2">
         <v>1525</v>
@@ -6495,29 +6497,29 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I55" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="J55" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="K55" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M55" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>443</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="P55" s="3" t="s">
         <v>444</v>
-      </c>
-      <c r="P55" s="3" t="s">
-        <v>445</v>
       </c>
       <c r="Q55" s="3"/>
       <c r="T55" s="1" t="s">
@@ -6527,9 +6529,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B56" s="2">
         <v>1449</v>
@@ -6540,29 +6542,29 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="I56" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="J56" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="K56" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="M56" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>450</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="P56" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="Q56" s="3"/>
       <c r="T56" s="1" t="s">
@@ -6572,9 +6574,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B57" s="2">
         <v>1551</v>
@@ -6586,22 +6588,22 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="P57" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Q57" s="3"/>
       <c r="T57" s="1" t="s">
@@ -6611,9 +6613,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B58" s="2">
         <v>1518</v>
@@ -6624,29 +6626,29 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="I58" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="J58" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="K58" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="M58" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>465</v>
       </c>
       <c r="N58" s="1"/>
       <c r="O58" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="Q58" s="3"/>
       <c r="T58" s="1" t="s">
@@ -6656,9 +6658,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B59" s="2">
         <v>1439</v>
@@ -6672,26 +6674,26 @@
         <v>139</v>
       </c>
       <c r="I59" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="J59" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="K59" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="M59" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>473</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="P59" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Q59" s="3"/>
       <c r="T59" s="1" t="s">
@@ -6701,9 +6703,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B60" s="2">
         <v>1450</v>
@@ -6714,29 +6716,29 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="J60" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="K60" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="M60" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>482</v>
       </c>
       <c r="N60" s="1"/>
       <c r="O60" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="P60" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Q60" s="3"/>
       <c r="T60" s="1" t="s">
@@ -6746,9 +6748,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B61" s="2">
         <v>1458</v>
@@ -6760,24 +6762,24 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="J61" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>488</v>
       </c>
       <c r="K61" s="1"/>
       <c r="L61" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N61" s="1"/>
       <c r="O61" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="Q61" s="3"/>
       <c r="T61" s="1" t="s">
@@ -6787,9 +6789,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B62" s="2">
         <v>1514</v>
@@ -6800,29 +6802,29 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I62" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="J62" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="K62" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="M62" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>497</v>
       </c>
       <c r="N62" s="1"/>
       <c r="O62" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q62" s="3"/>
       <c r="T62" s="1" t="s">
@@ -6832,9 +6834,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B63" s="2">
         <v>1470</v>
@@ -6845,23 +6847,23 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N63" s="1"/>
       <c r="O63" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="P63" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Q63" s="3"/>
       <c r="T63" s="1" t="s">
@@ -6871,9 +6873,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B64" s="2">
         <v>1466</v>
@@ -6884,29 +6886,29 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="I64" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="J64" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="J64" s="1" t="s">
+      <c r="K64" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="M64" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>511</v>
       </c>
       <c r="N64" s="1"/>
       <c r="O64" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="Q64" s="3"/>
       <c r="T64" s="1" t="s">
@@ -6916,9 +6918,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B65" s="2">
         <v>1492</v>
@@ -6929,29 +6931,29 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="I65" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="J65" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="K65" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="M65" s="1" t="s">
         <v>519</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>520</v>
       </c>
       <c r="N65" s="1"/>
       <c r="O65" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P65" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="Q65" s="3"/>
       <c r="T65" s="1" t="s">
@@ -6961,9 +6963,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:21" ht="176" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B66" s="2">
         <v>1541</v>
@@ -6974,29 +6976,29 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="I66" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="J66" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="J66" s="1" t="s">
+      <c r="K66" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="M66" s="1" t="s">
         <v>528</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>529</v>
       </c>
       <c r="N66" s="1"/>
       <c r="O66" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="P66" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="Q66" s="3"/>
       <c r="T66" s="1" t="s">
@@ -7006,9 +7008,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B67" s="2">
         <v>1451</v>
@@ -7019,26 +7021,26 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I67" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="J67" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="J67" s="1" t="s">
+      <c r="K67" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="M67" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="M67" s="1" t="s">
-        <v>537</v>
       </c>
       <c r="N67" s="1"/>
       <c r="O67" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
@@ -7049,9 +7051,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B68" s="2">
         <v>1506</v>
@@ -7062,29 +7064,29 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="I68" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="I68" s="1" t="s">
+      <c r="J68" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="K68" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="M68" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>545</v>
       </c>
       <c r="N68" s="1"/>
       <c r="O68" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="P68" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="Q68" s="3"/>
       <c r="T68" s="1" t="s">
@@ -7094,9 +7096,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:21" ht="80" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B69" s="2">
         <v>1496</v>
@@ -7107,29 +7109,29 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="I69" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="I69" s="1" t="s">
+      <c r="J69" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="J69" s="1" t="s">
+      <c r="K69" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="M69" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="M69" s="1" t="s">
-        <v>554</v>
       </c>
       <c r="N69" s="1"/>
       <c r="O69" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="P69" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="Q69" s="3"/>
       <c r="T69" s="1" t="s">
@@ -7139,9 +7141,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B70" s="2">
         <v>1579</v>
@@ -7152,29 +7154,29 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="I70" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="I70" s="1" t="s">
+      <c r="J70" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="J70" s="1" t="s">
+      <c r="K70" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M70" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="M70" s="1" t="s">
-        <v>563</v>
       </c>
       <c r="N70" s="1"/>
       <c r="O70" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="P70" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="Q70" s="3"/>
       <c r="T70" s="1" t="s">
@@ -7184,9 +7186,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B71" s="2">
         <v>1472</v>
@@ -7198,26 +7200,26 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="J71" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="J71" s="1" t="s">
+      <c r="K71" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="M71" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="L71" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="M71" s="1" t="s">
-        <v>571</v>
       </c>
       <c r="N71" s="1"/>
       <c r="O71" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="P71" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="Q71" s="3"/>
       <c r="T71" s="1" t="s">
@@ -7227,9 +7229,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B72" s="2">
         <v>1529</v>
@@ -7241,26 +7243,26 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="J72" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="J72" s="1" t="s">
+      <c r="K72" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="M72" s="1" t="s">
         <v>578</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>579</v>
       </c>
       <c r="N72" s="1"/>
       <c r="O72" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P72" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="Q72" s="3"/>
       <c r="T72" s="1" t="s">
@@ -7270,9 +7272,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B73" s="2">
         <v>1522</v>
@@ -7283,29 +7285,29 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="I73" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="I73" s="1" t="s">
+      <c r="J73" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="J73" s="1" t="s">
+      <c r="K73" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="M73" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="M73" s="1" t="s">
-        <v>588</v>
       </c>
       <c r="N73" s="1"/>
       <c r="O73" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="P73" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Q73" s="3"/>
       <c r="T73" s="1" t="s">
@@ -7315,9 +7317,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B74" s="2">
         <v>1554</v>
@@ -7328,29 +7330,29 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="I74" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="J74" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="J74" s="1" t="s">
+      <c r="K74" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="M74" s="1" t="s">
         <v>596</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="M74" s="1" t="s">
-        <v>597</v>
       </c>
       <c r="N74" s="1"/>
       <c r="O74" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="P74" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="Q74" s="3"/>
       <c r="T74" s="1" t="s">
@@ -7360,9 +7362,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B75" s="2">
         <v>1531</v>
@@ -7374,26 +7376,26 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J75" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="J75" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="K75" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="N75" s="1"/>
       <c r="O75" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="P75" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="Q75" s="3"/>
       <c r="T75" s="1" t="s">
@@ -7403,9 +7405,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B76" s="2">
         <v>1515</v>
@@ -7416,29 +7418,29 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="I76" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="J76" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="J76" s="1" t="s">
+      <c r="K76" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="M76" s="1" t="s">
         <v>610</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="M76" s="1" t="s">
-        <v>611</v>
       </c>
       <c r="N76" s="1"/>
       <c r="O76" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="P76" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="Q76" s="3"/>
       <c r="T76" s="1" t="s">
@@ -7448,9 +7450,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B77" s="2">
         <v>1512</v>
@@ -7461,29 +7463,29 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="J77" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="I77" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J77" s="1" t="s">
+      <c r="K77" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="M77" s="1" t="s">
         <v>618</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="M77" s="1" t="s">
-        <v>619</v>
       </c>
       <c r="N77" s="1"/>
       <c r="O77" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="P77" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="Q77" s="3"/>
       <c r="T77" s="1" t="s">
@@ -7493,9 +7495,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B78" s="2">
         <v>1582</v>
@@ -7507,26 +7509,26 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="J78" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="J78" s="1" t="s">
+      <c r="K78" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="M78" s="1" t="s">
         <v>625</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="M78" s="1" t="s">
-        <v>626</v>
       </c>
       <c r="N78" s="1"/>
       <c r="O78" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="P78" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="Q78" s="3"/>
       <c r="T78" s="1" t="s">
@@ -7536,9 +7538,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B79" s="2">
         <v>1479</v>
@@ -7549,29 +7551,29 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="I79" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="I79" s="1" t="s">
+      <c r="J79" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="J79" s="1" t="s">
+      <c r="K79" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="M79" s="1" t="s">
         <v>633</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="M79" s="1" t="s">
-        <v>634</v>
       </c>
       <c r="N79" s="1"/>
       <c r="O79" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="P79" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="Q79" s="3"/>
       <c r="T79" s="1" t="s">
@@ -7581,9 +7583,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:21" ht="80" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B80" s="2">
         <v>1581</v>
@@ -7594,29 +7596,29 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="I80" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="J80" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="J80" s="1" t="s">
+      <c r="K80" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="M80" s="1" t="s">
         <v>642</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="M80" s="1" t="s">
-        <v>643</v>
       </c>
       <c r="N80" s="1"/>
       <c r="O80" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="P80" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="Q80" s="3"/>
       <c r="T80" s="1" t="s">
@@ -7626,9 +7628,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B81" s="2">
         <v>1481</v>
@@ -7640,26 +7642,26 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="J81" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="J81" s="1" t="s">
+      <c r="K81" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="M81" s="1" t="s">
         <v>650</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="M81" s="1" t="s">
-        <v>651</v>
       </c>
       <c r="N81" s="1"/>
       <c r="O81" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="P81" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="Q81" s="3"/>
       <c r="T81" s="1" t="s">
@@ -7669,9 +7671,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B82" s="2">
         <v>1484</v>
@@ -7682,29 +7684,29 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="I82" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="I82" s="1" t="s">
+      <c r="J82" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="J82" s="1" t="s">
+      <c r="K82" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="M82" s="1" t="s">
         <v>659</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="M82" s="1" t="s">
-        <v>660</v>
       </c>
       <c r="N82" s="1"/>
       <c r="O82" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="P82" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="Q82" s="3"/>
       <c r="T82" s="1" t="s">
@@ -7714,9 +7716,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B83" s="2">
         <v>1565</v>
@@ -7727,23 +7729,23 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="L83" s="1"/>
       <c r="M83" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N83" s="1"/>
       <c r="O83" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="P83" s="3" t="s">
         <v>668</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>669</v>
       </c>
       <c r="Q83" s="3"/>
       <c r="T83" s="1" t="s">
@@ -7753,9 +7755,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B84" s="2">
         <v>1528</v>
@@ -7766,29 +7768,29 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="I84" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="I84" s="1" t="s">
+      <c r="J84" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="J84" s="1" t="s">
+      <c r="K84" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="M84" s="1" t="s">
         <v>673</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="M84" s="1" t="s">
-        <v>674</v>
       </c>
       <c r="N84" s="1"/>
       <c r="O84" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="P84" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="Q84" s="3"/>
       <c r="T84" s="1" t="s">
@@ -7798,9 +7800,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B85" s="2">
         <v>1563</v>
@@ -7811,29 +7813,29 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="I85" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="I85" s="1" t="s">
+      <c r="J85" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="J85" s="1" t="s">
+      <c r="K85" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="M85" s="1" t="s">
         <v>682</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="L85" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="M85" s="1" t="s">
-        <v>683</v>
       </c>
       <c r="N85" s="1"/>
       <c r="O85" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="P85" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="Q85" s="3"/>
       <c r="T85" s="1" t="s">
@@ -7843,9 +7845,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:21" ht="57" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B86" s="2">
         <v>1583</v>
@@ -7861,14 +7863,14 @@
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N86" s="1"/>
       <c r="O86" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="P86" s="3" t="s">
         <v>690</v>
-      </c>
-      <c r="P86" s="3" t="s">
-        <v>691</v>
       </c>
       <c r="Q86" s="3"/>
       <c r="T86" s="1" t="s">
@@ -7878,9 +7880,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B87" s="2">
         <v>1434</v>
@@ -7891,29 +7893,29 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="I87" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="I87" s="1" t="s">
+      <c r="J87" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="J87" s="1" t="s">
+      <c r="K87" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="M87" s="1" t="s">
         <v>695</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="L87" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="M87" s="1" t="s">
-        <v>696</v>
       </c>
       <c r="N87" s="1"/>
       <c r="O87" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="P87" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="Q87" s="3"/>
       <c r="T87" s="1" t="s">
@@ -7923,9 +7925,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B88" s="2">
         <v>1574</v>
@@ -7936,25 +7938,25 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="I88" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="I88" s="1" t="s">
+      <c r="J88" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="J88" s="1" t="s">
+      <c r="K88" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="K88" s="1" t="s">
+      <c r="L88" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="L88" s="1" t="s">
-        <v>706</v>
       </c>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
       <c r="P88" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Q88" s="3"/>
       <c r="T88" s="1" t="s">
@@ -7964,9 +7966,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B89" s="2">
         <v>1591</v>
@@ -7982,14 +7984,14 @@
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="N89" s="1"/>
       <c r="O89" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="P89" s="3" t="s">
         <v>710</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>711</v>
       </c>
       <c r="Q89" s="3"/>
       <c r="T89" s="1" t="s">
@@ -7999,9 +8001,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B90" s="2">
         <v>1474</v>
@@ -8012,29 +8014,29 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="I90" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="I90" s="1" t="s">
+      <c r="J90" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="J90" s="1" t="s">
+      <c r="K90" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="M90" s="1" t="s">
         <v>715</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="L90" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="M90" s="1" t="s">
-        <v>716</v>
       </c>
       <c r="N90" s="1"/>
       <c r="O90" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="P90" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="Q90" s="3"/>
       <c r="T90" s="1" t="s">
@@ -8044,9 +8046,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B91" s="2">
         <v>1432</v>
@@ -8057,29 +8059,29 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="I91" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="I91" s="1" t="s">
+      <c r="J91" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="J91" s="1" t="s">
+      <c r="K91" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="M91" s="1" t="s">
         <v>724</v>
-      </c>
-      <c r="K91" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="L91" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="M91" s="1" t="s">
-        <v>725</v>
       </c>
       <c r="N91" s="1"/>
       <c r="O91" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="P91" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="Q91" s="3"/>
       <c r="T91" s="1" t="s">
@@ -8089,9 +8091,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B92" s="2">
         <v>1507</v>
@@ -8102,29 +8104,29 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="I92" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="I92" s="1" t="s">
+      <c r="J92" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="J92" s="1" t="s">
+      <c r="K92" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="M92" s="1" t="s">
         <v>733</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="M92" s="1" t="s">
-        <v>734</v>
       </c>
       <c r="N92" s="1"/>
       <c r="O92" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="P92" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="Q92" s="3"/>
       <c r="T92" s="1" t="s">
@@ -8134,9 +8136,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B93" s="2">
         <v>1584</v>
@@ -8147,29 +8149,29 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="I93" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="I93" s="1" t="s">
+      <c r="J93" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="J93" s="1" t="s">
+      <c r="K93" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="M93" s="1" t="s">
         <v>742</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="L93" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="M93" s="1" t="s">
-        <v>743</v>
       </c>
       <c r="N93" s="1"/>
       <c r="O93" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="P93" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q93" s="3"/>
       <c r="T93" s="1" t="s">
@@ -8179,9 +8181,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B94" s="2">
         <v>1501</v>
@@ -8193,26 +8195,26 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="J94" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="J94" s="1" t="s">
+      <c r="K94" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="M94" s="1" t="s">
         <v>749</v>
-      </c>
-      <c r="K94" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="L94" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="M94" s="1" t="s">
-        <v>750</v>
       </c>
       <c r="N94" s="1"/>
       <c r="O94" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="P94" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="Q94" s="3"/>
       <c r="T94" s="1" t="s">
@@ -8222,9 +8224,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="95" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B95" s="2">
         <v>1444</v>
@@ -8235,29 +8237,29 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="I95" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="I95" s="1" t="s">
+      <c r="J95" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="J95" s="1" t="s">
+      <c r="K95" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="M95" s="1" t="s">
         <v>758</v>
-      </c>
-      <c r="K95" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="L95" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="M95" s="1" t="s">
-        <v>759</v>
       </c>
       <c r="N95" s="1"/>
       <c r="O95" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="P95" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q95" s="3"/>
       <c r="T95" s="1" t="s">
@@ -8267,9 +8269,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="57" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B96" s="2">
         <v>1437</v>
@@ -8280,29 +8282,29 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="I96" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="I96" s="1" t="s">
+      <c r="J96" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="J96" s="1" t="s">
+      <c r="K96" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="M96" s="1" t="s">
         <v>767</v>
-      </c>
-      <c r="K96" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="L96" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="M96" s="1" t="s">
-        <v>768</v>
       </c>
       <c r="N96" s="1"/>
       <c r="O96" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="P96" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="Q96" s="3"/>
       <c r="T96" s="1" t="s">
@@ -8312,9 +8314,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="256.5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:21" ht="288" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B97" s="2">
         <v>1533</v>
@@ -8325,29 +8327,29 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="I97" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="I97" s="1" t="s">
+      <c r="J97" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="J97" s="1" t="s">
+      <c r="K97" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="M97" s="1" t="s">
         <v>776</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="L97" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="M97" s="1" t="s">
-        <v>777</v>
       </c>
       <c r="N97" s="1"/>
       <c r="O97" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="P97" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="Q97" s="3"/>
       <c r="T97" s="1" t="s">
@@ -8357,9 +8359,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B98" s="2">
         <v>1590</v>
@@ -8370,29 +8372,29 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>94</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="N98" s="1"/>
       <c r="O98" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="P98" s="3" t="s">
         <v>785</v>
-      </c>
-      <c r="P98" s="3" t="s">
-        <v>786</v>
       </c>
       <c r="Q98" s="3"/>
       <c r="T98" s="1" t="s">
@@ -8402,9 +8404,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B99" s="2">
         <v>1519</v>
@@ -8418,26 +8420,26 @@
         <v>75</v>
       </c>
       <c r="I99" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="J99" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="J99" s="1" t="s">
+      <c r="K99" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="M99" s="1" t="s">
         <v>789</v>
-      </c>
-      <c r="K99" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="L99" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="M99" s="1" t="s">
-        <v>790</v>
       </c>
       <c r="N99" s="1"/>
       <c r="O99" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="P99" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="Q99" s="3"/>
       <c r="T99" s="1" t="s">
@@ -8447,9 +8449,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B100" s="2">
         <v>1503</v>
@@ -8461,26 +8463,26 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J100" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="M100" s="1" t="s">
         <v>796</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="L100" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="M100" s="1" t="s">
-        <v>797</v>
       </c>
       <c r="N100" s="1"/>
       <c r="O100" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="P100" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="Q100" s="3"/>
       <c r="T100" s="1" t="s">
@@ -8490,9 +8492,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B101" s="2">
         <v>1480</v>
@@ -8504,26 +8506,26 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="J101" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="J101" s="1" t="s">
+      <c r="K101" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="M101" s="1" t="s">
         <v>804</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="L101" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="M101" s="1" t="s">
-        <v>805</v>
       </c>
       <c r="N101" s="1"/>
       <c r="O101" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P101" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="Q101" s="3"/>
       <c r="T101" s="1" t="s">
@@ -8533,9 +8535,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="57" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B102" s="2">
         <v>1561</v>
@@ -8546,29 +8548,29 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="I102" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="I102" s="1" t="s">
+      <c r="J102" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="J102" s="1" t="s">
+      <c r="K102" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="M102" s="1" t="s">
         <v>813</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="L102" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="M102" s="1" t="s">
-        <v>814</v>
       </c>
       <c r="N102" s="1"/>
       <c r="O102" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="P102" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="Q102" s="3"/>
       <c r="T102" s="1" t="s">
@@ -8578,9 +8580,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B103" s="2">
         <v>1539</v>
@@ -8591,27 +8593,27 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="I103" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="I103" s="1" t="s">
+      <c r="J103" s="1" t="s">
         <v>821</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>822</v>
       </c>
       <c r="K103" s="1"/>
       <c r="L103" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="N103" s="1"/>
       <c r="O103" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="P103" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="Q103" s="3"/>
       <c r="T103" s="1" t="s">
@@ -8621,9 +8623,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B104" s="2">
         <v>1493</v>
@@ -8635,26 +8637,26 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="J104" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="J104" s="1" t="s">
-        <v>528</v>
-      </c>
       <c r="K104" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="N104" s="1"/>
       <c r="O104" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="P104" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="Q104" s="3"/>
       <c r="T104" s="1" t="s">
@@ -8664,9 +8666,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B105" s="2">
         <v>1523</v>
@@ -8680,26 +8682,26 @@
         <v>139</v>
       </c>
       <c r="I105" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="J105" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="J105" s="1" t="s">
+      <c r="K105" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="M105" s="1" t="s">
         <v>834</v>
-      </c>
-      <c r="K105" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="L105" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="M105" s="1" t="s">
-        <v>835</v>
       </c>
       <c r="N105" s="1"/>
       <c r="O105" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="P105" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="Q105" s="3"/>
       <c r="T105" s="1" t="s">
@@ -8709,9 +8711,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B106" s="2">
         <v>1487</v>
@@ -8723,24 +8725,24 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="J106" s="1" t="s">
         <v>841</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>842</v>
       </c>
       <c r="K106" s="1"/>
       <c r="L106" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="N106" s="1"/>
       <c r="O106" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="P106" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="Q106" s="3"/>
       <c r="T106" s="1" t="s">
@@ -8750,9 +8752,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:21" ht="240" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B107" s="2">
         <v>1483</v>
@@ -8763,29 +8765,29 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="I107" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="I107" s="1" t="s">
+      <c r="J107" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="J107" s="1" t="s">
+      <c r="K107" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="M107" s="1" t="s">
         <v>850</v>
-      </c>
-      <c r="K107" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="L107" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="M107" s="1" t="s">
-        <v>851</v>
       </c>
       <c r="N107" s="1"/>
       <c r="O107" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="P107" s="3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="Q107" s="3"/>
       <c r="T107" s="1" t="s">
@@ -8795,9 +8797,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B108" s="2">
         <v>1476</v>
@@ -8813,14 +8815,14 @@
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="N108" s="1"/>
       <c r="O108" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="P108" s="3" t="s">
         <v>857</v>
-      </c>
-      <c r="P108" s="3" t="s">
-        <v>858</v>
       </c>
       <c r="Q108" s="3"/>
       <c r="T108" s="1" t="s">
@@ -8830,9 +8832,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B109" s="2">
         <v>1564</v>
@@ -8843,27 +8845,27 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J109" s="1" t="s">
         <v>860</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>861</v>
       </c>
       <c r="K109" s="1"/>
       <c r="L109" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="N109" s="1"/>
       <c r="O109" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="P109" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="Q109" s="3"/>
       <c r="T109" s="1" t="s">
@@ -8873,9 +8875,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B110" s="2">
         <v>1436</v>
@@ -8886,29 +8888,29 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I110" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="J110" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="J110" s="1" t="s">
+      <c r="K110" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="M110" s="1" t="s">
         <v>868</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="L110" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="M110" s="1" t="s">
-        <v>869</v>
       </c>
       <c r="N110" s="1"/>
       <c r="O110" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="P110" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q110" s="3"/>
       <c r="T110" s="1" t="s">
@@ -8918,9 +8920,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B111" s="2">
         <v>1516</v>
@@ -8932,23 +8934,23 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="J111" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="J111" s="1" t="s">
+      <c r="K111" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="M111" s="1" t="s">
         <v>876</v>
-      </c>
-      <c r="K111" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="L111" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="M111" s="1" t="s">
-        <v>877</v>
       </c>
       <c r="N111" s="1"/>
       <c r="O111" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="P111" s="3"/>
       <c r="Q111" s="3"/>
@@ -8959,9 +8961,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="112" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B112" s="2">
         <v>1543</v>
@@ -8976,21 +8978,21 @@
         <v>94</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K112" s="1"/>
       <c r="L112" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="N112" s="1"/>
       <c r="O112" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="P112" s="3" t="s">
         <v>883</v>
-      </c>
-      <c r="P112" s="3" t="s">
-        <v>884</v>
       </c>
       <c r="Q112" s="3"/>
       <c r="T112" s="1" t="s">
@@ -9000,9 +9002,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B113" s="2">
         <v>1576</v>
@@ -9013,29 +9015,29 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="I113" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="I113" s="1" t="s">
+      <c r="J113" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="J113" s="1" t="s">
+      <c r="K113" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="M113" s="1" t="s">
         <v>888</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="L113" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="M113" s="1" t="s">
-        <v>889</v>
       </c>
       <c r="N113" s="1"/>
       <c r="O113" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="P113" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="Q113" s="3"/>
       <c r="T113" s="1" t="s">
@@ -9045,9 +9047,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B114" s="2">
         <v>1497</v>
@@ -9063,11 +9065,11 @@
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
       <c r="M114" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="N114" s="1"/>
       <c r="O114" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="P114" s="3"/>
       <c r="Q114" s="3"/>
@@ -9078,9 +9080,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B115" s="2">
         <v>1524</v>
@@ -9092,20 +9094,20 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
       <c r="M115" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="N115" s="1"/>
       <c r="O115" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="P115" s="3" t="s">
         <v>900</v>
-      </c>
-      <c r="P115" s="3" t="s">
-        <v>901</v>
       </c>
       <c r="Q115" s="3"/>
       <c r="T115" s="1" t="s">
@@ -9115,9 +9117,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B116" s="2">
         <v>1587</v>
@@ -9128,29 +9130,29 @@
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="I116" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="I116" s="1" t="s">
+      <c r="J116" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="J116" s="1" t="s">
+      <c r="K116" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="M116" s="1" t="s">
         <v>905</v>
-      </c>
-      <c r="K116" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="L116" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="M116" s="1" t="s">
-        <v>906</v>
       </c>
       <c r="N116" s="1"/>
       <c r="O116" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="P116" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="Q116" s="3"/>
       <c r="T116" s="1" t="s">
@@ -9160,9 +9162,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="117" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B117" s="2">
         <v>1556</v>
@@ -9176,26 +9178,26 @@
         <v>75</v>
       </c>
       <c r="I117" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="J117" s="1" t="s">
         <v>912</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>913</v>
       </c>
       <c r="K117" s="1" t="s">
         <v>80</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="N117" s="1"/>
       <c r="O117" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="P117" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="Q117" s="3"/>
       <c r="T117" s="1" t="s">
@@ -9205,9 +9207,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B118" s="2">
         <v>1499</v>
@@ -9221,26 +9223,26 @@
         <v>81</v>
       </c>
       <c r="I118" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="J118" s="1" t="s">
         <v>919</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>920</v>
       </c>
       <c r="K118" s="1" t="s">
         <v>77</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="N118" s="1"/>
       <c r="O118" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="P118" s="3" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="Q118" s="3"/>
       <c r="T118" s="1" t="s">
@@ -9250,9 +9252,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B119" s="2">
         <v>1495</v>
@@ -9263,29 +9265,29 @@
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I119" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="J119" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="J119" s="1" t="s">
+      <c r="K119" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="M119" s="1" t="s">
         <v>927</v>
-      </c>
-      <c r="K119" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="L119" s="1" t="s">
-        <v>931</v>
-      </c>
-      <c r="M119" s="1" t="s">
-        <v>928</v>
       </c>
       <c r="N119" s="1"/>
       <c r="O119" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="P119" s="3" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="Q119" s="3"/>
       <c r="T119" s="1" t="s">
@@ -9295,9 +9297,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="120" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B120" s="2">
         <v>1498</v>
@@ -9308,29 +9310,29 @@
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="I120" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="I120" s="1" t="s">
+      <c r="J120" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="J120" s="1" t="s">
+      <c r="K120" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="M120" s="1" t="s">
         <v>936</v>
-      </c>
-      <c r="K120" s="1" t="s">
-        <v>939</v>
-      </c>
-      <c r="L120" s="1" t="s">
-        <v>940</v>
-      </c>
-      <c r="M120" s="1" t="s">
-        <v>937</v>
       </c>
       <c r="N120" s="1"/>
       <c r="O120" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="P120" s="3" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="Q120" s="3"/>
       <c r="T120" s="1" t="s">
@@ -9340,9 +9342,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B121" s="2">
         <v>1537</v>
@@ -9353,29 +9355,29 @@
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="I121" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="I121" s="1" t="s">
+      <c r="J121" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="M121" s="1" t="s">
         <v>944</v>
-      </c>
-      <c r="J121" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="K121" s="1" t="s">
-        <v>947</v>
-      </c>
-      <c r="L121" s="1" t="s">
-        <v>947</v>
-      </c>
-      <c r="M121" s="1" t="s">
-        <v>945</v>
       </c>
       <c r="N121" s="1"/>
       <c r="O121" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="P121" s="3" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="Q121" s="3"/>
       <c r="T121" s="1" t="s">
@@ -9385,9 +9387,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="122" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B122" s="2">
         <v>1462</v>
@@ -9398,29 +9400,29 @@
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="I122" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="I122" s="1" t="s">
+      <c r="J122" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="J122" s="1" t="s">
+      <c r="K122" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="M122" s="1" t="s">
         <v>952</v>
-      </c>
-      <c r="K122" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="L122" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="M122" s="1" t="s">
-        <v>953</v>
       </c>
       <c r="N122" s="1"/>
       <c r="O122" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="P122" s="3" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="Q122" s="3"/>
       <c r="T122" s="1" t="s">
@@ -9430,9 +9432,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="1:21" ht="57" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B123" s="2">
         <v>1500</v>
@@ -9443,29 +9445,29 @@
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="I123" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="I123" s="1" t="s">
+      <c r="J123" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="J123" s="1" t="s">
+      <c r="K123" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="M123" s="1" t="s">
         <v>961</v>
-      </c>
-      <c r="K123" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="L123" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="M123" s="1" t="s">
-        <v>962</v>
       </c>
       <c r="N123" s="1"/>
       <c r="O123" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="P123" s="3" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="Q123" s="3"/>
       <c r="T123" s="1" t="s">
